--- a/database/industries/urea/shapdis/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/urea/shapdis/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\shapdis\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\shapdis\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFACC80-318E-4094-B1DA-14E31C0A1909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B086CC97-6C5D-433C-AE00-87F5BB2B4633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>3 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>3 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>6 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-27 (9)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -88,16 +85,19 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-03-21 (2)</t>
+    <t>1402-01-30 (3)</t>
   </si>
   <si>
     <t>1401-05-19 (2)</t>
   </si>
   <si>
-    <t>1401-10-28 (3)</t>
+    <t>1402-01-30 (4)</t>
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-01-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,19 +619,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="4" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +644,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +660,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +676,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +690,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +706,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +722,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +736,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -809,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -823,151 +822,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>78340025</v>
+        <v>46810537</v>
       </c>
       <c r="E11" s="13">
-        <v>46810537</v>
+        <v>88806190</v>
       </c>
       <c r="F11" s="13">
-        <v>88806190</v>
+        <v>136740382</v>
       </c>
       <c r="G11" s="13">
-        <v>136740382</v>
+        <v>197398681</v>
       </c>
       <c r="H11" s="13">
-        <v>197398681</v>
+        <v>94387382</v>
       </c>
       <c r="I11" s="13">
-        <v>94387382</v>
+        <v>161373844</v>
       </c>
       <c r="J11" s="13">
-        <v>161373844</v>
+        <v>289433821</v>
       </c>
       <c r="K11" s="13">
-        <v>289433821</v>
+        <v>431582823</v>
       </c>
       <c r="L11" s="13">
-        <v>431582823</v>
+        <v>110842812</v>
       </c>
       <c r="M11" s="13">
-        <v>110842812</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>181186833</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-30994287</v>
+        <v>-14466354</v>
       </c>
       <c r="E12" s="11">
-        <v>-14466354</v>
+        <v>-30126728</v>
       </c>
       <c r="F12" s="11">
-        <v>-30126728</v>
+        <v>-44214185</v>
       </c>
       <c r="G12" s="11">
-        <v>-44214185</v>
+        <v>-70710577</v>
       </c>
       <c r="H12" s="11">
-        <v>-70710577</v>
+        <v>-37794904</v>
       </c>
       <c r="I12" s="11">
-        <v>-37794904</v>
+        <v>-68923090</v>
       </c>
       <c r="J12" s="11">
-        <v>-68923090</v>
+        <v>-110912374</v>
       </c>
       <c r="K12" s="11">
-        <v>-110912374</v>
+        <v>-159682555</v>
       </c>
       <c r="L12" s="11">
-        <v>-159682555</v>
+        <v>-34318064</v>
       </c>
       <c r="M12" s="11">
-        <v>-34318064</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-65203331</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>47345738</v>
+        <v>32344183</v>
       </c>
       <c r="E13" s="15">
-        <v>32344183</v>
+        <v>58679462</v>
       </c>
       <c r="F13" s="15">
-        <v>58679462</v>
+        <v>92526197</v>
       </c>
       <c r="G13" s="15">
-        <v>92526197</v>
+        <v>126688104</v>
       </c>
       <c r="H13" s="15">
-        <v>126688104</v>
+        <v>56592478</v>
       </c>
       <c r="I13" s="15">
-        <v>56592478</v>
+        <v>92450754</v>
       </c>
       <c r="J13" s="15">
-        <v>92450754</v>
+        <v>178521447</v>
       </c>
       <c r="K13" s="15">
-        <v>178521447</v>
+        <v>271900268</v>
       </c>
       <c r="L13" s="15">
-        <v>271900268</v>
+        <v>76524748</v>
       </c>
       <c r="M13" s="15">
-        <v>76524748</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>115983502</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-8165941</v>
+        <v>-3831223</v>
       </c>
       <c r="E14" s="11">
-        <v>-3831223</v>
+        <v>-7656550</v>
       </c>
       <c r="F14" s="11">
-        <v>-7656550</v>
+        <v>-10794753</v>
       </c>
       <c r="G14" s="11">
-        <v>-10794753</v>
+        <v>-9591839</v>
       </c>
       <c r="H14" s="11">
-        <v>-9591839</v>
+        <v>-2265379</v>
       </c>
       <c r="I14" s="11">
-        <v>-2265379</v>
+        <v>-3606877</v>
       </c>
       <c r="J14" s="11">
-        <v>-3606877</v>
+        <v>-5279200</v>
       </c>
       <c r="K14" s="11">
-        <v>-5279200</v>
+        <v>-38847143</v>
       </c>
       <c r="L14" s="11">
-        <v>-38847143</v>
+        <v>-3191115</v>
       </c>
       <c r="M14" s="11">
-        <v>-3191115</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-46857925</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1003,259 +1002,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>18351893</v>
+        <v>273315</v>
       </c>
       <c r="E16" s="11">
-        <v>273315</v>
+        <v>3938522</v>
       </c>
       <c r="F16" s="11">
-        <v>3938522</v>
+        <v>1565354</v>
       </c>
       <c r="G16" s="11">
-        <v>1565354</v>
+        <v>2372391</v>
       </c>
       <c r="H16" s="11">
-        <v>2372391</v>
+        <v>-169830</v>
       </c>
       <c r="I16" s="11">
-        <v>-169830</v>
+        <v>1467698</v>
       </c>
       <c r="J16" s="11">
-        <v>1467698</v>
+        <v>1026848</v>
       </c>
       <c r="K16" s="11">
-        <v>1026848</v>
+        <v>11254375</v>
       </c>
       <c r="L16" s="11">
-        <v>11254375</v>
+        <v>1836195</v>
       </c>
       <c r="M16" s="11">
-        <v>1836195</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>23315668</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>57531690</v>
+        <v>28786275</v>
       </c>
       <c r="E17" s="15">
-        <v>28786275</v>
+        <v>54961434</v>
       </c>
       <c r="F17" s="15">
-        <v>54961434</v>
+        <v>83296798</v>
       </c>
       <c r="G17" s="15">
-        <v>83296798</v>
+        <v>119468656</v>
       </c>
       <c r="H17" s="15">
-        <v>119468656</v>
+        <v>54157269</v>
       </c>
       <c r="I17" s="15">
-        <v>54157269</v>
+        <v>90311575</v>
       </c>
       <c r="J17" s="15">
-        <v>90311575</v>
+        <v>174269095</v>
       </c>
       <c r="K17" s="15">
-        <v>174269095</v>
+        <v>244307500</v>
       </c>
       <c r="L17" s="15">
-        <v>244307500</v>
+        <v>75169828</v>
       </c>
       <c r="M17" s="15">
-        <v>75169828</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>92441245</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-732424</v>
+        <v>-77409</v>
       </c>
       <c r="E18" s="11">
-        <v>-77409</v>
+        <v>-249766</v>
       </c>
       <c r="F18" s="11">
-        <v>-249766</v>
+        <v>-316159</v>
       </c>
       <c r="G18" s="11">
-        <v>-316159</v>
+        <v>-474078</v>
       </c>
       <c r="H18" s="11">
-        <v>-474078</v>
+        <v>-258982</v>
       </c>
       <c r="I18" s="11">
-        <v>-258982</v>
+        <v>-438268</v>
       </c>
       <c r="J18" s="11">
-        <v>-438268</v>
+        <v>-588232</v>
       </c>
       <c r="K18" s="11">
-        <v>-588232</v>
+        <v>-1065627</v>
       </c>
       <c r="L18" s="11">
-        <v>-1065627</v>
+        <v>-484883</v>
       </c>
       <c r="M18" s="11">
-        <v>-484883</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-954828</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>736262</v>
+        <v>115810</v>
       </c>
       <c r="E19" s="13">
-        <v>115810</v>
+        <v>1147656</v>
       </c>
       <c r="F19" s="13">
-        <v>1147656</v>
+        <v>2348964</v>
       </c>
       <c r="G19" s="13">
-        <v>2348964</v>
+        <v>4525226</v>
       </c>
       <c r="H19" s="13">
-        <v>4525226</v>
+        <v>2410362</v>
       </c>
       <c r="I19" s="13">
-        <v>2410362</v>
+        <v>6280618</v>
       </c>
       <c r="J19" s="13">
-        <v>6280619</v>
+        <v>9101554</v>
       </c>
       <c r="K19" s="13">
-        <v>9101554</v>
+        <v>12770725</v>
       </c>
       <c r="L19" s="13">
-        <v>12770725</v>
+        <v>3330336</v>
       </c>
       <c r="M19" s="13">
-        <v>3330336</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15586152</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>57535528</v>
+        <v>28824676</v>
       </c>
       <c r="E20" s="17">
-        <v>28824676</v>
+        <v>55859324</v>
       </c>
       <c r="F20" s="17">
-        <v>55859324</v>
+        <v>85329603</v>
       </c>
       <c r="G20" s="17">
-        <v>85329603</v>
+        <v>123519804</v>
       </c>
       <c r="H20" s="17">
-        <v>123519804</v>
+        <v>56308649</v>
       </c>
       <c r="I20" s="17">
-        <v>56308649</v>
+        <v>96153925</v>
       </c>
       <c r="J20" s="17">
-        <v>96153926</v>
+        <v>182782417</v>
       </c>
       <c r="K20" s="17">
-        <v>182782417</v>
+        <v>256012598</v>
       </c>
       <c r="L20" s="17">
-        <v>256012598</v>
+        <v>78015281</v>
       </c>
       <c r="M20" s="17">
-        <v>78015281</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>107072569</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-51495</v>
+        <v>0</v>
       </c>
       <c r="E21" s="13">
-        <v>0</v>
+        <v>-26316</v>
       </c>
       <c r="F21" s="13">
-        <v>-26316</v>
+        <v>0</v>
       </c>
       <c r="G21" s="13">
-        <v>0</v>
+        <v>4597514</v>
       </c>
       <c r="H21" s="13">
-        <v>4597514</v>
+        <v>0</v>
       </c>
       <c r="I21" s="13">
-        <v>0</v>
+        <v>-16130</v>
       </c>
       <c r="J21" s="13">
-        <v>-16130</v>
+        <v>0</v>
       </c>
       <c r="K21" s="13">
-        <v>0</v>
+        <v>-184701</v>
       </c>
       <c r="L21" s="13">
-        <v>-184701</v>
+        <v>0</v>
       </c>
       <c r="M21" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-41198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>57484033</v>
+        <v>28824676</v>
       </c>
       <c r="E22" s="17">
-        <v>28824676</v>
+        <v>55833008</v>
       </c>
       <c r="F22" s="17">
-        <v>55833008</v>
+        <v>85329603</v>
       </c>
       <c r="G22" s="17">
-        <v>85329603</v>
+        <v>128117318</v>
       </c>
       <c r="H22" s="17">
-        <v>128117318</v>
+        <v>56308649</v>
       </c>
       <c r="I22" s="17">
-        <v>56308649</v>
+        <v>96137795</v>
       </c>
       <c r="J22" s="17">
-        <v>96137796</v>
+        <v>182782417</v>
       </c>
       <c r="K22" s="17">
-        <v>182782417</v>
+        <v>255827897</v>
       </c>
       <c r="L22" s="17">
-        <v>255827897</v>
+        <v>78015281</v>
       </c>
       <c r="M22" s="17">
-        <v>78015281</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>107031371</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1291,79 +1290,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>57484033</v>
+        <v>28824676</v>
       </c>
       <c r="E24" s="17">
-        <v>28824676</v>
+        <v>55833008</v>
       </c>
       <c r="F24" s="17">
-        <v>55833008</v>
+        <v>85329603</v>
       </c>
       <c r="G24" s="17">
-        <v>85329603</v>
+        <v>128117318</v>
       </c>
       <c r="H24" s="17">
-        <v>128117318</v>
+        <v>56308649</v>
       </c>
       <c r="I24" s="17">
-        <v>56308649</v>
+        <v>96137795</v>
       </c>
       <c r="J24" s="17">
-        <v>96137796</v>
+        <v>182782417</v>
       </c>
       <c r="K24" s="17">
-        <v>182782417</v>
+        <v>255827897</v>
       </c>
       <c r="L24" s="17">
-        <v>255827897</v>
+        <v>78015281</v>
       </c>
       <c r="M24" s="17">
-        <v>78015281</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>107031371</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>9581</v>
+        <v>4804</v>
       </c>
       <c r="E25" s="13">
-        <v>4804</v>
+        <v>9306</v>
       </c>
       <c r="F25" s="13">
-        <v>9306</v>
+        <v>14222</v>
       </c>
       <c r="G25" s="13">
-        <v>14222</v>
+        <v>21353</v>
       </c>
       <c r="H25" s="13">
-        <v>21353</v>
+        <v>9385</v>
       </c>
       <c r="I25" s="13">
-        <v>9385</v>
+        <v>16023</v>
       </c>
       <c r="J25" s="13">
-        <v>16042</v>
+        <v>30464</v>
       </c>
       <c r="K25" s="13">
-        <v>30464</v>
+        <v>42638</v>
       </c>
       <c r="L25" s="13">
-        <v>42638</v>
+        <v>13003</v>
       </c>
       <c r="M25" s="13">
-        <v>13003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17839</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>6000000</v>
       </c>
       <c r="J26" s="11">
-        <v>5992860</v>
+        <v>6000000</v>
       </c>
       <c r="K26" s="11">
         <v>6000000</v>
@@ -1399,43 +1398,43 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>9581</v>
+        <v>4804</v>
       </c>
       <c r="E27" s="13">
-        <v>4804</v>
+        <v>9306</v>
       </c>
       <c r="F27" s="13">
-        <v>9306</v>
+        <v>14222</v>
       </c>
       <c r="G27" s="13">
-        <v>14222</v>
+        <v>21353</v>
       </c>
       <c r="H27" s="13">
-        <v>21353</v>
+        <v>9385</v>
       </c>
       <c r="I27" s="13">
-        <v>9385</v>
+        <v>16023</v>
       </c>
       <c r="J27" s="13">
-        <v>16023</v>
+        <v>30464</v>
       </c>
       <c r="K27" s="13">
-        <v>30464</v>
+        <v>42638</v>
       </c>
       <c r="L27" s="13">
-        <v>42638</v>
+        <v>13003</v>
       </c>
       <c r="M27" s="13">
-        <v>13003</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17839</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
